--- a/tables/test.xlsx
+++ b/tables/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,48 +429,403 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>03.11.23</t>
+          <t>28.10.23</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>29.10.23</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>30.10.23</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>31.10.23</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c5</t>
+          <t>50:ff:20:74:dd:cf</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c4</t>
+          <t>50:ff:20:74:dd:ce</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52:ff:20:a0:e3:c3</t>
+          <t>52:ff:20:74:dd:cd</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04:7c:16:3e:cc:79</t>
+          <t>dc:21:48:92:48:07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.683333333333334</v>
+        <v>24.08</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:eb:b6:ae:c2:31</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>50:ff:20:7b:33:07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>50:ff:20:70:02:68</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>50:ff:20:7c:59:33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4e:04:05:f2:09:9b</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c2:6c:80:3c:68:b6</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2a:06:9b:f4:50:cc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>14:eb:b6:58:77:69</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>00:00:00:00:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ba:f4:ae:c8:a9:18</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0e:65:c8:f9:53:f0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>70:9c:d1:81:f0:33</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>b4:0e:de:5d:e5:71</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>74:f2:fa:ce:25:2d</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>16:7b:c7:18:cc:73</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>dc:21:48:90:39:a9</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13.97</v>
       </c>
     </row>
   </sheetData>
